--- a/data/raw/gpr.xlsx
+++ b/data/raw/gpr.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22332" windowHeight="11736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512"/>
   </bookViews>
   <sheets>
     <sheet name="GPR" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -187,7 +187,7 @@
     <t>N3H_SW3</t>
   </si>
   <si>
-    <t>* September data for 2019 preliminary, based on newspaper searches until September 10, 2019</t>
+    <t>* June data for 2019 preliminary, based on newspaper searches until June 10, 2019</t>
   </si>
 </sst>
 </file>
@@ -642,11 +642,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M470"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B372" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B380" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B419"/>
+      <selection pane="bottomRight" activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14835,22 +14835,22 @@
         <v>42370</v>
       </c>
       <c r="B374" s="16">
-        <v>142.44979638624804</v>
+        <v>142.45228898972994</v>
       </c>
       <c r="C374" s="16">
-        <v>151.94374341630316</v>
+        <v>151.94640214599951</v>
       </c>
       <c r="D374" s="16">
-        <v>86.426793365146111</v>
+        <v>86.428305671457068</v>
       </c>
       <c r="E374" s="16">
-        <v>108.97907228297829</v>
+        <v>108.98097921174839</v>
       </c>
       <c r="F374" s="16">
-        <v>146.16630114406087</v>
+        <v>146.16885877938509</v>
       </c>
       <c r="H374" s="20">
-        <v>57150</v>
+        <v>57149</v>
       </c>
       <c r="I374" s="20">
         <v>418</v>
@@ -14911,22 +14911,22 @@
         <v>42430</v>
       </c>
       <c r="B376" s="16">
-        <v>96.442988989787665</v>
+        <v>96.447702109077582</v>
       </c>
       <c r="C376" s="16">
-        <v>98.33227672779158</v>
+        <v>98.33708217560195</v>
       </c>
       <c r="D376" s="16">
-        <v>85.820027749007295</v>
+        <v>85.824221729642716</v>
       </c>
       <c r="E376" s="16">
-        <v>76.693886035887388</v>
+        <v>76.697634026669078</v>
       </c>
       <c r="F376" s="16">
-        <v>92.438092274349515</v>
+        <v>92.44260967639589</v>
       </c>
       <c r="H376" s="20">
-        <v>61391</v>
+        <v>61388</v>
       </c>
       <c r="I376" s="20">
         <v>304</v>
@@ -14987,22 +14987,22 @@
         <v>42491</v>
       </c>
       <c r="B378" s="16">
-        <v>83.025138621657007</v>
+        <v>83.026565783472606</v>
       </c>
       <c r="C378" s="16">
-        <v>84.609564195539306</v>
+        <v>84.6110185928611</v>
       </c>
       <c r="D378" s="16">
-        <v>69.80877028720117</v>
+        <v>69.809970266063019</v>
       </c>
       <c r="E378" s="16">
-        <v>71.24960730493585</v>
+        <v>71.250832051086348</v>
       </c>
       <c r="F378" s="16">
-        <v>84.670387943534536</v>
+        <v>84.671843386387025</v>
       </c>
       <c r="H378" s="20">
-        <v>58176</v>
+        <v>58175</v>
       </c>
       <c r="I378" s="20">
         <v>248</v>
@@ -15063,37 +15063,37 @@
         <v>42552</v>
       </c>
       <c r="B380" s="16">
-        <v>128.74797943374</v>
+        <v>128.39171414808018</v>
       </c>
       <c r="C380" s="16">
-        <v>138.09379486370651</v>
+        <v>137.66879490521407</v>
       </c>
       <c r="D380" s="16">
-        <v>78.824443909177205</v>
+        <v>78.825895396009415</v>
       </c>
       <c r="E380" s="16">
-        <v>92.569315761463031</v>
+        <v>92.37530994629482</v>
       </c>
       <c r="F380" s="16">
-        <v>129.15711633120657</v>
+        <v>128.74150276042383</v>
       </c>
       <c r="H380" s="20">
-        <v>54307</v>
+        <v>54306</v>
       </c>
       <c r="I380" s="20">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J380" s="20">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K380" s="20">
         <v>39</v>
       </c>
       <c r="L380" s="20">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M380" s="20">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="381" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15139,22 +15139,22 @@
         <v>42614</v>
       </c>
       <c r="B382" s="16">
-        <v>88.791452919344522</v>
+        <v>88.794640435603839</v>
       </c>
       <c r="C382" s="16">
-        <v>91.265624392880923</v>
+        <v>91.268900729196005</v>
       </c>
       <c r="D382" s="16">
-        <v>80.774008876102201</v>
+        <v>80.776908574870006</v>
       </c>
       <c r="E382" s="16">
-        <v>82.410231133503316</v>
+        <v>82.413189570864517</v>
       </c>
       <c r="F382" s="16">
-        <v>87.189684566343999</v>
+        <v>87.192814580867491</v>
       </c>
       <c r="H382" s="20">
-        <v>55714</v>
+        <v>55712</v>
       </c>
       <c r="I382" s="20">
         <v>254</v>
@@ -15177,22 +15177,22 @@
         <v>42644</v>
       </c>
       <c r="B383" s="16">
-        <v>82.853574171262665</v>
+        <v>82.856499327017275</v>
       </c>
       <c r="C383" s="16">
-        <v>86.067496135252483</v>
+        <v>86.070534758922278</v>
       </c>
       <c r="D383" s="16">
-        <v>65.875429162892246</v>
+        <v>65.877754903122892</v>
       </c>
       <c r="E383" s="16">
-        <v>74.293245472413034</v>
+        <v>74.295868404696833</v>
       </c>
       <c r="F383" s="16">
-        <v>76.531717516554821</v>
+        <v>76.534419478372911</v>
       </c>
       <c r="H383" s="20">
-        <v>56651</v>
+        <v>56649</v>
       </c>
       <c r="I383" s="20">
         <v>241</v>
@@ -15215,22 +15215,22 @@
         <v>42675</v>
       </c>
       <c r="B384" s="16">
-        <v>105.25195554516174</v>
+        <v>105.25397260032636</v>
       </c>
       <c r="C384" s="16">
-        <v>114.79591655195942</v>
+        <v>114.79811650819927</v>
       </c>
       <c r="D384" s="16">
-        <v>52.586154025207712</v>
+        <v>52.587161789605197</v>
       </c>
       <c r="E384" s="16">
-        <v>77.80443757728051</v>
+        <v>77.805928626466567</v>
       </c>
       <c r="F384" s="16">
-        <v>105.70638628216209</v>
+        <v>105.70841204606623</v>
       </c>
       <c r="H384" s="20">
-        <v>52182</v>
+        <v>52181</v>
       </c>
       <c r="I384" s="20">
         <v>282</v>
@@ -15253,22 +15253,22 @@
         <v>42705</v>
       </c>
       <c r="B385" s="16">
-        <v>119.03179112880487</v>
+        <v>119.04367932878579</v>
       </c>
       <c r="C385" s="16">
-        <v>126.59887833797325</v>
+        <v>126.61152229442192</v>
       </c>
       <c r="D385" s="16">
-        <v>76.729067769448449</v>
+        <v>76.736731020529021</v>
       </c>
       <c r="E385" s="16">
-        <v>102.31717011037702</v>
+        <v>102.32738895164806</v>
       </c>
       <c r="F385" s="16">
-        <v>121.50390151907888</v>
+        <v>121.51603661900489</v>
       </c>
       <c r="H385" s="20">
-        <v>50068</v>
+        <v>50063</v>
       </c>
       <c r="I385" s="20">
         <v>306</v>
@@ -15291,22 +15291,22 @@
         <v>42736</v>
       </c>
       <c r="B386" s="16">
-        <v>123.48494510761037</v>
+        <v>123.46115224728133</v>
       </c>
       <c r="C386" s="16">
-        <v>124.39089127634246</v>
+        <v>124.36692385991157</v>
       </c>
       <c r="D386" s="16">
-        <v>114.22527440704799</v>
+        <v>114.20326568365549</v>
       </c>
       <c r="E386" s="16">
-        <v>102.61616508494529</v>
+        <v>102.5963931841582</v>
       </c>
       <c r="F386" s="16">
-        <v>129.04881420160373</v>
+        <v>129.02394930484041</v>
       </c>
       <c r="H386" s="20">
-        <v>51890</v>
+        <v>51900</v>
       </c>
       <c r="I386" s="20">
         <v>329</v>
@@ -15329,22 +15329,22 @@
         <v>42767</v>
       </c>
       <c r="B387" s="16">
-        <v>126.91429964920917</v>
+        <v>126.86954013021581</v>
       </c>
       <c r="C387" s="16">
-        <v>133.9526698279461</v>
+        <v>133.9054280507315</v>
       </c>
       <c r="D387" s="16">
-        <v>84.281638239908176</v>
+        <v>84.251914200946317</v>
       </c>
       <c r="E387" s="16">
-        <v>114.47435542097244</v>
+        <v>114.43398316110984</v>
       </c>
       <c r="F387" s="16">
-        <v>130.01811901355808</v>
+        <v>129.97226485462124</v>
       </c>
       <c r="H387" s="20">
-        <v>48186</v>
+        <v>48203</v>
       </c>
       <c r="I387" s="20">
         <v>314</v>
@@ -15367,37 +15367,37 @@
         <v>42795</v>
       </c>
       <c r="B388" s="16">
-        <v>122.60128963787504</v>
+        <v>122.88655833402437</v>
       </c>
       <c r="C388" s="16">
-        <v>122.29493874240549</v>
+        <v>122.64902354616551</v>
       </c>
       <c r="D388" s="16">
-        <v>122.87996773597615</v>
+        <v>122.80784449739306</v>
       </c>
       <c r="E388" s="16">
-        <v>98.11351681996743</v>
+        <v>98.25087222304974</v>
       </c>
       <c r="F388" s="16">
-        <v>124.97871655002038</v>
+        <v>125.32171267550932</v>
       </c>
       <c r="H388" s="20">
-        <v>54488</v>
+        <v>54520</v>
       </c>
       <c r="I388" s="20">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J388" s="20">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K388" s="20">
         <v>61</v>
       </c>
       <c r="L388" s="20">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M388" s="20">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="389" spans="1:13" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15405,22 +15405,22 @@
         <v>42826</v>
       </c>
       <c r="B389" s="16">
-        <v>174.01105432460861</v>
+        <v>173.85917004787223</v>
       </c>
       <c r="C389" s="16">
-        <v>189.46623065658574</v>
+        <v>189.30085644216618</v>
       </c>
       <c r="D389" s="16">
-        <v>95.888679133629111</v>
+        <v>95.804983400999106</v>
       </c>
       <c r="E389" s="16">
-        <v>125.97912721338535</v>
+        <v>125.86916725311181</v>
       </c>
       <c r="F389" s="16">
-        <v>186.58578454078076</v>
+        <v>186.42292450269716</v>
       </c>
       <c r="H389" s="20">
-        <v>50366</v>
+        <v>50410</v>
       </c>
       <c r="I389" s="20">
         <v>450</v>
@@ -15443,22 +15443,22 @@
         <v>42856</v>
       </c>
       <c r="B390" s="16">
-        <v>163.32837772045281</v>
+        <v>163.21253982961167</v>
       </c>
       <c r="C390" s="16">
-        <v>161.31840371229936</v>
+        <v>161.20399136154501</v>
       </c>
       <c r="D390" s="16">
-        <v>161.9543934242003</v>
+        <v>161.83953000849417</v>
       </c>
       <c r="E390" s="16">
-        <v>129.42639141060411</v>
+        <v>129.33459793044204</v>
       </c>
       <c r="F390" s="16">
-        <v>173.40136130674941</v>
+        <v>173.27837932258291</v>
       </c>
       <c r="H390" s="20">
-        <v>53541</v>
+        <v>53579</v>
       </c>
       <c r="I390" s="20">
         <v>449</v>
@@ -15481,37 +15481,37 @@
         <v>42887</v>
       </c>
       <c r="B391" s="16">
-        <v>135.06467993911312</v>
+        <v>135.43654807898054</v>
       </c>
       <c r="C391" s="16">
-        <v>136.13548416535482</v>
+        <v>136.11346823842587</v>
       </c>
       <c r="D391" s="16">
-        <v>130.93327187323894</v>
+        <v>133.1309463577289</v>
       </c>
       <c r="E391" s="16">
-        <v>121.19556207961774</v>
+        <v>121.39081324436367</v>
       </c>
       <c r="F391" s="16">
-        <v>139.06062900224998</v>
+        <v>139.49701176806306</v>
       </c>
       <c r="H391" s="20">
-        <v>49460</v>
+        <v>49468</v>
       </c>
       <c r="I391" s="20">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J391" s="20">
         <v>290</v>
       </c>
       <c r="K391" s="20">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L391" s="20">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M391" s="20">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="392" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15519,22 +15519,22 @@
         <v>42917</v>
       </c>
       <c r="B392" s="16">
-        <v>91.328539298066815</v>
+        <v>91.272637057061075</v>
       </c>
       <c r="C392" s="16">
-        <v>94.655466307739175</v>
+        <v>94.597527653177139</v>
       </c>
       <c r="D392" s="16">
-        <v>67.226537071210544</v>
+        <v>67.185387676878634</v>
       </c>
       <c r="E392" s="16">
-        <v>81.16583529390266</v>
+        <v>81.116153648702777</v>
       </c>
       <c r="F392" s="16">
-        <v>93.409871449471709</v>
+        <v>93.352695224096649</v>
       </c>
       <c r="H392" s="20">
-        <v>52247</v>
+        <v>52279</v>
       </c>
       <c r="I392" s="20">
         <v>245</v>
@@ -15557,22 +15557,22 @@
         <v>42948</v>
       </c>
       <c r="B393" s="16">
-        <v>201.56808311570038</v>
+        <v>201.44291470268124</v>
       </c>
       <c r="C393" s="16">
-        <v>219.10712211273969</v>
+        <v>218.97106242346683</v>
       </c>
       <c r="D393" s="16">
-        <v>117.221582845737</v>
+        <v>117.1487913637246</v>
       </c>
       <c r="E393" s="16">
-        <v>149.00186136922812</v>
+        <v>148.90933518037818</v>
       </c>
       <c r="F393" s="16">
-        <v>210.24555512097552</v>
+        <v>210.11499822887214</v>
       </c>
       <c r="H393" s="20">
-        <v>51500</v>
+        <v>51532</v>
       </c>
       <c r="I393" s="20">
         <v>533</v>
@@ -15595,22 +15595,22 @@
         <v>42979</v>
       </c>
       <c r="B394" s="16">
-        <v>147.61865050413979</v>
+        <v>147.54056605531454</v>
       </c>
       <c r="C394" s="16">
-        <v>163.69347133975302</v>
+        <v>163.60688394417525</v>
       </c>
       <c r="D394" s="16">
-        <v>60.165175965643428</v>
+        <v>60.133350958520637</v>
       </c>
       <c r="E394" s="16">
-        <v>117.52023838237481</v>
+        <v>117.45807480745687</v>
       </c>
       <c r="F394" s="16">
-        <v>156.17522095070586</v>
+        <v>156.09261041330797</v>
       </c>
       <c r="H394" s="20">
-        <v>52906</v>
+        <v>52934</v>
       </c>
       <c r="I394" s="20">
         <v>401</v>
@@ -15633,22 +15633,22 @@
         <v>43009</v>
       </c>
       <c r="B395" s="16">
-        <v>142.57209620516795</v>
+        <v>142.51551997651509</v>
       </c>
       <c r="C395" s="16">
-        <v>161.85413475808954</v>
+        <v>161.78990692683632</v>
       </c>
       <c r="D395" s="16">
-        <v>47.059543382149428</v>
+        <v>47.040868960172375</v>
       </c>
       <c r="E395" s="16">
-        <v>111.21899430432971</v>
+        <v>111.17485978278037</v>
       </c>
       <c r="F395" s="16">
-        <v>153.91302428213294</v>
+        <v>153.85194768519557</v>
       </c>
       <c r="H395" s="20">
-        <v>62975</v>
+        <v>63000</v>
       </c>
       <c r="I395" s="20">
         <v>461</v>
@@ -15671,22 +15671,22 @@
         <v>43040</v>
       </c>
       <c r="B396" s="16">
-        <v>114.80498769841141</v>
+        <v>114.76282177082904</v>
       </c>
       <c r="C396" s="16">
-        <v>127.96145036757585</v>
+        <v>127.91445229408005</v>
       </c>
       <c r="D396" s="16">
-        <v>49.095620889544492</v>
+        <v>49.077588899501706</v>
       </c>
       <c r="E396" s="16">
-        <v>90.494365371890865</v>
+        <v>90.46112832415119</v>
       </c>
       <c r="F396" s="16">
-        <v>124.7402815666844</v>
+        <v>124.69446657393372</v>
       </c>
       <c r="H396" s="20">
-        <v>62599</v>
+        <v>62622</v>
       </c>
       <c r="I396" s="20">
         <v>369</v>
@@ -15709,22 +15709,22 @@
         <v>43070</v>
       </c>
       <c r="B397" s="16">
-        <v>113.36334725465977</v>
+        <v>113.31859651686531</v>
       </c>
       <c r="C397" s="16">
-        <v>124.77942175195781</v>
+        <v>124.73016446271757</v>
       </c>
       <c r="D397" s="16">
-        <v>49.000063819596576</v>
+        <v>48.980720803877603</v>
       </c>
       <c r="E397" s="16">
-        <v>113.32468020762447</v>
+        <v>113.2799447338366</v>
       </c>
       <c r="F397" s="16">
-        <v>123.55095651051495</v>
+        <v>123.5021841639589</v>
       </c>
       <c r="H397" s="20">
-        <v>58241</v>
+        <v>58264</v>
       </c>
       <c r="I397" s="20">
         <v>339</v>
@@ -15747,22 +15747,22 @@
         <v>43101</v>
       </c>
       <c r="B398" s="16">
-        <v>158.00830052584112</v>
+        <v>157.93965653365774</v>
       </c>
       <c r="C398" s="16">
-        <v>176.03375023251925</v>
+        <v>175.95727539331926</v>
       </c>
       <c r="D398" s="16">
-        <v>60.072902749497104</v>
+        <v>60.046805108720989</v>
       </c>
       <c r="E398" s="16">
-        <v>128.82622511884722</v>
+        <v>128.77025877808762</v>
       </c>
       <c r="F398" s="16">
-        <v>168.0819525454155</v>
+        <v>168.00893222813914</v>
       </c>
       <c r="H398" s="20">
-        <v>62123</v>
+        <v>62150</v>
       </c>
       <c r="I398" s="20">
         <v>504</v>
@@ -15785,22 +15785,22 @@
         <v>43132</v>
       </c>
       <c r="B399" s="16">
-        <v>96.973165616778857</v>
+        <v>96.94859100697461</v>
       </c>
       <c r="C399" s="16">
-        <v>105.09560546048992</v>
+        <v>105.06897248960665</v>
       </c>
       <c r="D399" s="16">
-        <v>53.65781435228152</v>
+        <v>53.644216571469997</v>
       </c>
       <c r="E399" s="16">
-        <v>89.481194223234723</v>
+        <v>89.458518203339239</v>
       </c>
       <c r="F399" s="16">
-        <v>99.459926151699676</v>
+        <v>99.434721355498667</v>
       </c>
       <c r="H399" s="20">
-        <v>55231</v>
+        <v>55245</v>
       </c>
       <c r="I399" s="20">
         <v>275</v>
@@ -15823,22 +15823,22 @@
         <v>43160</v>
       </c>
       <c r="B400" s="16">
-        <v>199.98004714737127</v>
+        <v>199.79727019320325</v>
       </c>
       <c r="C400" s="16">
-        <v>221.19142427745589</v>
+        <v>220.98926063466143</v>
       </c>
       <c r="D400" s="16">
-        <v>84.830512943219233</v>
+        <v>84.752979894310371</v>
       </c>
       <c r="E400" s="16">
-        <v>148.02201807409131</v>
+        <v>147.88672950906036</v>
       </c>
       <c r="F400" s="16">
-        <v>213.02792189868813</v>
+        <v>212.83321950075998</v>
       </c>
       <c r="H400" s="20">
-        <v>63401</v>
+        <v>63459</v>
       </c>
       <c r="I400" s="20">
         <v>651</v>
@@ -15861,22 +15861,22 @@
         <v>43191</v>
       </c>
       <c r="B401" s="16">
-        <v>233.79423321003236</v>
+        <v>233.65857773399878</v>
       </c>
       <c r="C401" s="16">
-        <v>262.06293322469679</v>
+        <v>261.9108752741252</v>
       </c>
       <c r="D401" s="16">
-        <v>101.20979951474003</v>
+        <v>101.15107409904466</v>
       </c>
       <c r="E401" s="16">
-        <v>165.69491729153344</v>
+        <v>165.59877538686408</v>
       </c>
       <c r="F401" s="16">
-        <v>255.82105896607962</v>
+        <v>255.67262276619144</v>
       </c>
       <c r="H401" s="20">
-        <v>58563</v>
+        <v>58597</v>
       </c>
       <c r="I401" s="6">
         <v>703</v>
@@ -15899,22 +15899,22 @@
         <v>43221</v>
       </c>
       <c r="B402" s="16">
-        <v>172.90710374382076</v>
+        <v>172.81386342707546</v>
       </c>
       <c r="C402" s="16">
-        <v>201.19377755504533</v>
+        <v>201.08528362310011</v>
       </c>
       <c r="D402" s="16">
-        <v>34.097060705017341</v>
+        <v>34.078673833273022</v>
       </c>
       <c r="E402" s="16">
-        <v>141.79571435767099</v>
+        <v>141.71925088663033</v>
       </c>
       <c r="F402" s="16">
-        <v>187.79213988484432</v>
+        <v>187.69087279849552</v>
       </c>
       <c r="H402" s="20">
-        <v>61163</v>
+        <v>61196</v>
       </c>
       <c r="I402" s="6">
         <v>543</v>
@@ -15937,22 +15937,22 @@
         <v>43252</v>
       </c>
       <c r="B403" s="16">
-        <v>198.75176531619925</v>
+        <v>198.65814848287403</v>
       </c>
       <c r="C403" s="16">
-        <v>224.8657332470296</v>
+        <v>224.75981611046248</v>
       </c>
       <c r="D403" s="16">
-        <v>65.993841632594211</v>
+        <v>65.962756955369926</v>
       </c>
       <c r="E403" s="16">
-        <v>139.54768982830294</v>
+        <v>139.48195953001454</v>
       </c>
       <c r="F403" s="16">
-        <v>212.46515852004126</v>
+        <v>212.36508235065</v>
       </c>
       <c r="H403" s="20">
-        <v>61539</v>
+        <v>61568</v>
       </c>
       <c r="I403" s="6">
         <v>628</v>
@@ -15975,22 +15975,22 @@
         <v>43282</v>
       </c>
       <c r="B404" s="16">
-        <v>236.98746378092616</v>
+        <v>236.87537322220277</v>
       </c>
       <c r="C404" s="16">
-        <v>266.82557752466965</v>
+        <v>266.69937410618809</v>
       </c>
       <c r="D404" s="16">
-        <v>79.764871063031364</v>
+        <v>79.727143797540975</v>
       </c>
       <c r="E404" s="16">
-        <v>158.24453650752713</v>
+        <v>158.16968985433689</v>
       </c>
       <c r="F404" s="16">
-        <v>262.39941695798149</v>
+        <v>262.27530702918494</v>
       </c>
       <c r="H404" s="20">
-        <v>59171</v>
+        <v>59199</v>
       </c>
       <c r="I404" s="6">
         <v>720</v>
@@ -16013,22 +16013,22 @@
         <v>43313</v>
       </c>
       <c r="B405" s="16">
-        <v>156.6644548754974</v>
+        <v>156.55598347165562</v>
       </c>
       <c r="C405" s="16">
-        <v>177.34854206033765</v>
+        <v>177.225749399157</v>
       </c>
       <c r="D405" s="16">
-        <v>51.936405104598151</v>
+        <v>51.900445353698252</v>
       </c>
       <c r="E405" s="16">
-        <v>115.30774704473654</v>
+        <v>115.22791021636525</v>
       </c>
       <c r="F405" s="16">
-        <v>171.8523282751795</v>
+        <v>171.73334108490522</v>
       </c>
       <c r="H405" s="20">
-        <v>59175</v>
+        <v>59216</v>
       </c>
       <c r="I405" s="6">
         <v>476</v>
@@ -16051,22 +16051,22 @@
         <v>43344</v>
       </c>
       <c r="B406" s="16">
-        <v>127.8510898769723</v>
+        <v>127.76403401387036</v>
       </c>
       <c r="C406" s="16">
-        <v>146.62789645493328</v>
+        <v>146.52805516227801</v>
       </c>
       <c r="D406" s="16">
-        <v>29.186206893235539</v>
+        <v>29.166333535611393</v>
       </c>
       <c r="E406" s="16">
-        <v>110.74772642853783</v>
+        <v>110.67231652065132</v>
       </c>
       <c r="F406" s="16">
-        <v>137.69370649653166</v>
+        <v>137.59994863749193</v>
       </c>
       <c r="H406" s="20">
-        <v>60172</v>
+        <v>60213</v>
       </c>
       <c r="I406" s="6">
         <v>395</v>
@@ -16089,22 +16089,22 @@
         <v>43374</v>
       </c>
       <c r="B407" s="16">
-        <v>160.80005798781499</v>
+        <v>160.71536153896105</v>
       </c>
       <c r="C407" s="16">
-        <v>183.90900851520504</v>
+        <v>183.8121401425912</v>
       </c>
       <c r="D407" s="16">
-        <v>38.562810115495019</v>
+        <v>38.542498349967794</v>
       </c>
       <c r="E407" s="16">
-        <v>109.64481910968608</v>
+        <v>109.58706709808837</v>
       </c>
       <c r="F407" s="16">
-        <v>173.27561213723467</v>
+        <v>173.18434457673334</v>
       </c>
       <c r="H407" s="6">
-        <v>62619</v>
+        <v>62652</v>
       </c>
       <c r="I407" s="6">
         <v>517</v>
@@ -16127,22 +16127,22 @@
         <v>43405</v>
       </c>
       <c r="B408" s="16">
-        <v>148.34854208074356</v>
+        <v>148.24745698476033</v>
       </c>
       <c r="C408" s="16">
-        <v>169.128806313924</v>
+        <v>169.0135614899441</v>
       </c>
       <c r="D408" s="16">
-        <v>36.508848500302868</v>
+        <v>36.483971272639373</v>
       </c>
       <c r="E408" s="16">
-        <v>110.29665298466824</v>
+        <v>110.22149654836493</v>
       </c>
       <c r="F408" s="16">
-        <v>156.29030291840814</v>
+        <v>156.18380628520796</v>
       </c>
       <c r="H408" s="6">
-        <v>60129</v>
+        <v>60170</v>
       </c>
       <c r="I408" s="6">
         <v>458</v>
@@ -16165,22 +16165,22 @@
         <v>43435</v>
       </c>
       <c r="B409" s="16">
-        <v>171.35034764442923</v>
+        <v>171.23124481219156</v>
       </c>
       <c r="C409" s="16">
-        <v>195.10676521255621</v>
+        <v>194.97114968189052</v>
       </c>
       <c r="D409" s="16">
-        <v>45.395431940109454</v>
+        <v>45.363878315684133</v>
       </c>
       <c r="E409" s="16">
-        <v>127.87305773477667</v>
+        <v>127.78417525772032</v>
       </c>
       <c r="F409" s="16">
-        <v>183.92056575802451</v>
+        <v>183.79272557217328</v>
       </c>
       <c r="H409" s="6">
-        <v>53194</v>
+        <v>53231</v>
       </c>
       <c r="I409" s="6">
         <v>468</v>
@@ -16203,38 +16203,38 @@
         <v>43466</v>
       </c>
       <c r="B410" s="16">
-        <v>185.15954194082528</v>
+        <v>186.29010572735353</v>
       </c>
       <c r="C410" s="16">
-        <v>213.10988657505339</v>
+        <v>214.43890904906425</v>
       </c>
       <c r="D410" s="16">
-        <v>39.843092357195026</v>
+        <v>39.941129423816442</v>
       </c>
       <c r="E410" s="16">
-        <v>138.15327618654254</v>
+        <v>139.04571272373454</v>
       </c>
       <c r="F410" s="16">
-        <v>194.61619260983454</v>
+        <v>195.88173471229712</v>
       </c>
       <c r="G410" s="16"/>
       <c r="H410" s="6">
-        <v>57852</v>
+        <v>57710</v>
       </c>
       <c r="I410" s="6">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J410" s="6">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="K410" s="6">
         <v>21</v>
       </c>
       <c r="L410" s="6">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="M410" s="6">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="411" spans="1:13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16242,22 +16242,22 @@
         <v>43497</v>
       </c>
       <c r="B411" s="16">
-        <v>156.79128336890273</v>
+        <v>157.82893502815125</v>
       </c>
       <c r="C411" s="16">
-        <v>175.34545565652934</v>
+        <v>176.50589964993421</v>
       </c>
       <c r="D411" s="16">
-        <v>54.701131220738041</v>
+        <v>55.063145730437689</v>
       </c>
       <c r="E411" s="16">
-        <v>123.65772579349137</v>
+        <v>124.4760981008767</v>
       </c>
       <c r="F411" s="16">
-        <v>169.25289781486848</v>
+        <v>170.37302099057467</v>
       </c>
       <c r="H411" s="6">
-        <v>52171</v>
+        <v>51828</v>
       </c>
       <c r="I411" s="6">
         <v>420</v>
@@ -16280,22 +16280,22 @@
         <v>43525</v>
       </c>
       <c r="B412" s="16">
-        <v>113.96542071666258</v>
+        <v>114.75867439450846</v>
       </c>
       <c r="C412" s="16">
-        <v>126.7253045803014</v>
+        <v>127.60737313497631</v>
       </c>
       <c r="D412" s="16">
-        <v>54.462218109679561</v>
+        <v>54.841301120539107</v>
       </c>
       <c r="E412" s="16">
-        <v>96.015390828175768</v>
+        <v>96.683703737699616</v>
       </c>
       <c r="F412" s="16">
-        <v>123.50598374260274</v>
+        <v>124.36564428896592</v>
       </c>
       <c r="H412" s="6">
-        <v>58446</v>
+        <v>58042</v>
       </c>
       <c r="I412" s="6">
         <v>342</v>
@@ -16318,37 +16318,37 @@
         <v>43556</v>
       </c>
       <c r="B413" s="16">
-        <v>103.62415854640705</v>
+        <v>105.78124694020383</v>
       </c>
       <c r="C413" s="16">
-        <v>116.43919058598611</v>
+        <v>118.95960995805517</v>
       </c>
       <c r="D413" s="16">
-        <v>35.513391266464872</v>
+        <v>35.769285712451165</v>
       </c>
       <c r="E413" s="16">
-        <v>94.756916950126268</v>
+        <v>96.209370094025942</v>
       </c>
       <c r="F413" s="16">
-        <v>111.79792834117865</v>
+        <v>114.24734349904635</v>
       </c>
       <c r="H413" s="6">
-        <v>55633</v>
+        <v>55235</v>
       </c>
       <c r="I413" s="6">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="J413" s="6">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K413" s="6">
         <v>18</v>
       </c>
       <c r="L413" s="6">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="M413" s="6">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="414" spans="1:13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16356,37 +16356,37 @@
         <v>43586</v>
       </c>
       <c r="B414" s="16">
-        <v>203.34428257672084</v>
+        <v>150.70126231313486</v>
       </c>
       <c r="C414" s="16">
-        <v>237.94737570621584</v>
+        <v>174.28618200653756</v>
       </c>
       <c r="D414" s="16">
-        <v>21.115465255528001</v>
+        <v>25.387041428774598</v>
       </c>
       <c r="E414" s="16">
-        <v>140.14865044023145</v>
+        <v>113.0783669090865</v>
       </c>
       <c r="F414" s="16">
-        <v>219.13442052421507</v>
+        <v>156.55134470305816</v>
       </c>
       <c r="H414" s="6">
-        <v>57180</v>
+        <v>47559</v>
       </c>
       <c r="I414" s="6">
-        <v>597</v>
+        <v>368</v>
       </c>
       <c r="J414" s="6">
-        <v>586</v>
+        <v>357</v>
       </c>
       <c r="K414" s="6">
         <v>11</v>
       </c>
       <c r="L414" s="6">
-        <v>754</v>
+        <v>506</v>
       </c>
       <c r="M414" s="6">
-        <v>552</v>
+        <v>328</v>
       </c>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.3">
@@ -16394,216 +16394,74 @@
         <v>43617</v>
       </c>
       <c r="B415" s="16">
-        <v>239.01688242596202</v>
+        <v>110.84684687763928</v>
       </c>
       <c r="C415" s="16">
-        <v>278.06414883880069</v>
+        <v>119.64432266039606</v>
       </c>
       <c r="D415" s="16">
-        <v>40.634543008194704</v>
+        <v>59.09353891833171</v>
       </c>
       <c r="E415" s="16">
-        <v>158.36925323932093</v>
+        <v>85.012914004449527</v>
       </c>
       <c r="F415" s="16">
-        <v>262.18843179596513</v>
+        <v>113.47988001321288</v>
       </c>
       <c r="H415" s="6">
-        <v>54024</v>
+        <v>13002</v>
       </c>
       <c r="I415" s="6">
-        <v>663</v>
+        <v>74</v>
       </c>
       <c r="J415" s="6">
-        <v>647</v>
+        <v>67</v>
       </c>
       <c r="K415" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L415" s="6">
-        <v>805</v>
+        <v>104</v>
       </c>
       <c r="M415" s="6">
-        <v>624</v>
+        <v>65</v>
       </c>
     </row>
     <row r="416" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="5">
-        <v>43647</v>
-      </c>
-      <c r="B416" s="16">
-        <v>185.74603175045013</v>
-      </c>
-      <c r="C416" s="16">
-        <v>210.0464047248789</v>
-      </c>
-      <c r="D416" s="16">
-        <v>53.83619285879341</v>
-      </c>
-      <c r="E416" s="16">
-        <v>134.95760301712409</v>
-      </c>
-      <c r="F416" s="16">
-        <v>194.6328431600412</v>
-      </c>
-      <c r="H416" s="6">
-        <v>55048</v>
-      </c>
-      <c r="I416" s="6">
-        <v>525</v>
-      </c>
-      <c r="J416" s="6">
-        <v>498</v>
-      </c>
-      <c r="K416" s="6">
-        <v>27</v>
-      </c>
-      <c r="L416" s="6">
-        <v>699</v>
-      </c>
-      <c r="M416" s="6">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="417" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="5">
-        <v>43678</v>
-      </c>
-      <c r="B417" s="16">
-        <v>255.80352392269364</v>
-      </c>
-      <c r="C417" s="16">
-        <v>290.21653595419895</v>
-      </c>
-      <c r="D417" s="16">
-        <v>69.663146445020985</v>
-      </c>
-      <c r="E417" s="16">
-        <v>178.7551506475414</v>
-      </c>
-      <c r="F417" s="16">
-        <v>281.33221302060275</v>
-      </c>
-      <c r="H417" s="6">
-        <v>56722</v>
-      </c>
-      <c r="I417" s="6">
-        <v>745</v>
-      </c>
-      <c r="J417" s="6">
-        <v>709</v>
-      </c>
-      <c r="K417" s="6">
-        <v>36</v>
-      </c>
-      <c r="L417" s="6">
-        <v>954</v>
-      </c>
-      <c r="M417" s="6">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="418" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="5">
-        <v>43709</v>
-      </c>
-      <c r="B418" s="16">
-        <v>147.86852855660041</v>
-      </c>
-      <c r="C418" s="16">
-        <v>168.59274243324344</v>
-      </c>
-      <c r="D418" s="16">
-        <v>46.027908890087524</v>
-      </c>
-      <c r="E418" s="16">
-        <v>153.6450411586664</v>
-      </c>
-      <c r="F418" s="16">
-        <v>156.81064219832413</v>
-      </c>
-      <c r="H418" s="6">
-        <v>45309</v>
-      </c>
-      <c r="I418" s="6">
-        <v>344</v>
-      </c>
-      <c r="J418" s="6">
-        <v>329</v>
-      </c>
-      <c r="K418" s="6">
-        <v>19</v>
-      </c>
-      <c r="L418" s="6">
-        <v>655</v>
-      </c>
-      <c r="M418" s="6">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="419" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A419" s="5">
-        <v>43739</v>
-      </c>
-      <c r="B419" s="16">
-        <v>121.01173288468124</v>
-      </c>
-      <c r="C419" s="16">
-        <v>134.53684361089933</v>
-      </c>
-      <c r="D419" s="16">
-        <v>76.628056111236774</v>
-      </c>
-      <c r="E419" s="16">
-        <v>181.78728239320907</v>
-      </c>
-      <c r="F419" s="16">
-        <v>128.36197172521139</v>
-      </c>
-      <c r="H419" s="6">
-        <v>14324</v>
-      </c>
-      <c r="I419" s="6">
-        <v>89</v>
-      </c>
-      <c r="J419" s="6">
-        <v>83</v>
-      </c>
-      <c r="K419" s="6">
-        <v>10</v>
-      </c>
-      <c r="L419" s="6">
-        <v>245</v>
-      </c>
-      <c r="M419" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="420" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A423" s="19" t="s">
+      <c r="B416" s="16"/>
+      <c r="C416" s="16"/>
+      <c r="D416" s="16"/>
+      <c r="E416" s="16"/>
+      <c r="F416" s="16"/>
+    </row>
+    <row r="417" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A424" s="21" t="s">
+    <row r="421" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A425" s="22" t="s">
+    <row r="422" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16650,13 +16508,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1451"/>
+  <dimension ref="A1:J1447"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C1451"/>
+      <selection pane="bottomRight" activeCell="L1436" sqref="L1436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57481,16 +57339,16 @@
         <v>22</v>
       </c>
       <c r="C1408" s="16">
-        <v>133.78334159363013</v>
+        <v>133.81158976343113</v>
       </c>
       <c r="D1408" s="16">
-        <v>138.05345096415158</v>
+        <v>138.08260076171231</v>
       </c>
       <c r="E1408" s="16">
-        <v>105.01298666036378</v>
+        <v>105.03516000902704</v>
       </c>
       <c r="G1408" s="11">
-        <v>14211</v>
+        <v>14208</v>
       </c>
       <c r="H1408" s="11">
         <v>128</v>
@@ -57771,16 +57629,16 @@
         <v>20</v>
       </c>
       <c r="C1418" s="16">
-        <v>147.247908438911</v>
+        <v>147.26236292933845</v>
       </c>
       <c r="D1418" s="16">
-        <v>151.93397898753622</v>
+        <v>151.94889348288058</v>
       </c>
       <c r="E1418" s="16">
-        <v>124.50810612179014</v>
+        <v>124.52032837504423</v>
       </c>
       <c r="G1418" s="11">
-        <v>10188</v>
+        <v>10187</v>
       </c>
       <c r="H1418" s="11">
         <v>101</v>
@@ -57800,16 +57658,16 @@
         <v>21</v>
       </c>
       <c r="C1419" s="16">
-        <v>191.88751076658664</v>
+        <v>191.90888384404195</v>
       </c>
       <c r="D1419" s="16">
-        <v>208.47345249589986</v>
+        <v>208.49667297142616</v>
       </c>
       <c r="E1419" s="16">
-        <v>116.34231479764748</v>
+        <v>116.35527339664937</v>
       </c>
       <c r="G1419" s="11">
-        <v>8979</v>
+        <v>8978</v>
       </c>
       <c r="H1419" s="11">
         <v>116</v>
@@ -58352,16 +58210,16 @@
         <v>28</v>
       </c>
       <c r="C1438" s="16">
-        <v>104.83356579010751</v>
+        <v>104.85706053552278</v>
       </c>
       <c r="D1438" s="16">
-        <v>116.95438290250191</v>
+        <v>116.98059410147027</v>
       </c>
       <c r="E1438" s="16">
-        <v>50.157052137124445</v>
+        <v>50.168293070902273</v>
       </c>
       <c r="G1438" s="11">
-        <v>8926</v>
+        <v>8924</v>
       </c>
       <c r="H1438" s="11">
         <v>63</v>
@@ -58442,16 +58300,16 @@
         <v>31</v>
       </c>
       <c r="C1441" s="16">
-        <v>147.939101281712</v>
+        <v>147.9217680557075</v>
       </c>
       <c r="D1441" s="16">
-        <v>168.72628211948319</v>
+        <v>168.7065133716975</v>
       </c>
       <c r="E1441" s="16">
-        <v>61.204455032896732</v>
+        <v>61.197284037248004</v>
       </c>
       <c r="G1441" s="11">
-        <v>8534</v>
+        <v>8535</v>
       </c>
       <c r="H1441" s="11">
         <v>85</v>
@@ -58472,16 +58330,16 @@
         <v>20</v>
       </c>
       <c r="C1442" s="16">
-        <v>166.50679585784789</v>
+        <v>166.27854804861252</v>
       </c>
       <c r="D1442" s="16">
-        <v>183.24181896358985</v>
+        <v>182.99063075518509</v>
       </c>
       <c r="E1442" s="16">
-        <v>85.354580629961973</v>
+        <v>85.237576420394305</v>
       </c>
       <c r="G1442" s="11">
-        <v>8742</v>
+        <v>8754</v>
       </c>
       <c r="H1442" s="11">
         <v>98</v>
@@ -58495,23 +58353,23 @@
     </row>
     <row r="1443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1443" s="11">
-        <f t="shared" ref="A1443:A1451" si="1">A1442+1/12</f>
+        <f>A1442+1/12</f>
         <v>2019.0833333679695</v>
       </c>
       <c r="B1443" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C1443" s="16">
-        <v>137.36957781487257</v>
+        <v>137.38722549731952</v>
       </c>
       <c r="D1443" s="16">
-        <v>164.15159818815462</v>
+        <v>164.17268652025894</v>
       </c>
       <c r="E1443" s="16">
-        <v>19.169421538204251</v>
+        <v>19.171884207664107</v>
       </c>
       <c r="G1443" s="11">
-        <v>7785</v>
+        <v>7784</v>
       </c>
       <c r="H1443" s="11">
         <v>72</v>
@@ -58525,7 +58383,7 @@
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1444" s="11">
-        <f t="shared" si="1"/>
+        <f>A1443+1/12</f>
         <v>2019.1666667013028</v>
       </c>
       <c r="B1444" s="11" t="s">
@@ -58555,7 +58413,7 @@
     </row>
     <row r="1445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1445" s="11">
-        <f t="shared" si="1"/>
+        <f>A1444+1/12</f>
         <v>2019.2500000346361</v>
       </c>
       <c r="B1445" s="11" t="s">
@@ -58585,23 +58443,23 @@
     </row>
     <row r="1446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1446" s="11">
-        <f t="shared" si="1"/>
+        <f>A1445+1/12</f>
         <v>2019.3333333679693</v>
       </c>
       <c r="B1446" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C1446" s="16">
-        <v>204.91805461953999</v>
+        <v>204.96598305613344</v>
       </c>
       <c r="D1446" s="16">
-        <v>235.69205293762181</v>
+        <v>235.7471791276287</v>
       </c>
       <c r="E1446" s="16">
-        <v>61.068492854753053</v>
+        <v>61.082776210082976</v>
       </c>
       <c r="G1446" s="11">
-        <v>8553</v>
+        <v>8551</v>
       </c>
       <c r="H1446" s="11">
         <v>118</v>
@@ -58615,152 +58473,32 @@
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1447" s="11">
-        <f t="shared" si="1"/>
+        <f>A1446+1/12</f>
         <v>2019.4166667013026</v>
       </c>
       <c r="B1447" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1447" s="16">
-        <v>261.01656937568242</v>
+        <v>168.6613714732928</v>
       </c>
       <c r="D1447" s="16">
-        <v>301.23642012528336</v>
+        <v>184.60381190954988</v>
       </c>
       <c r="E1447" s="16">
-        <v>62.44098242847739</v>
+        <v>81.996654494453452</v>
       </c>
       <c r="F1447" s="16"/>
       <c r="G1447" s="11">
-        <v>8365</v>
+        <v>2730</v>
       </c>
       <c r="H1447" s="11">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="I1447" s="11">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="J1447" s="11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="1448" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1448" s="11">
-        <f t="shared" si="1"/>
-        <v>2019.5000000346358</v>
-      </c>
-      <c r="B1448" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1448" s="16">
-        <v>141.72435768619945</v>
-      </c>
-      <c r="D1448" s="16">
-        <v>162.70170390443849</v>
-      </c>
-      <c r="E1448" s="16">
-        <v>46.840535815482518</v>
-      </c>
-      <c r="G1448" s="11">
-        <v>7965</v>
-      </c>
-      <c r="H1448" s="11">
-        <v>76</v>
-      </c>
-      <c r="I1448" s="11">
-        <v>72</v>
-      </c>
-      <c r="J1448" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1449" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1449" s="11">
-        <f t="shared" si="1"/>
-        <v>2019.5833333679691</v>
-      </c>
-      <c r="B1449" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1449" s="16">
-        <v>217.52139169830076</v>
-      </c>
-      <c r="D1449" s="16">
-        <v>239.42854409036673</v>
-      </c>
-      <c r="E1449" s="16">
-        <v>109.27552914211871</v>
-      </c>
-      <c r="G1449" s="11">
-        <v>8194</v>
-      </c>
-      <c r="H1449" s="11">
-        <v>120</v>
-      </c>
-      <c r="I1449" s="11">
-        <v>109</v>
-      </c>
-      <c r="J1449" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1450" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1450" s="11">
-        <f t="shared" si="1"/>
-        <v>2019.6666667013023</v>
-      </c>
-      <c r="B1450" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1450" s="16">
-        <v>169.93591742393718</v>
-      </c>
-      <c r="D1450" s="16">
-        <v>201.7671315021131</v>
-      </c>
-      <c r="E1450" s="16">
-        <v>25.869747243356667</v>
-      </c>
-      <c r="G1450" s="11">
-        <v>8653</v>
-      </c>
-      <c r="H1450" s="11">
-        <v>99</v>
-      </c>
-      <c r="I1450" s="11">
-        <v>97</v>
-      </c>
-      <c r="J1450" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1451" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1451" s="11">
-        <f t="shared" si="1"/>
-        <v>2019.7500000346356</v>
-      </c>
-      <c r="B1451" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1451" s="16">
-        <v>168.42616295763349</v>
-      </c>
-      <c r="D1451" s="16">
-        <v>184.96360184530673</v>
-      </c>
-      <c r="E1451" s="16">
-        <v>79.323483147777921</v>
-      </c>
-      <c r="G1451" s="11">
-        <v>2822</v>
-      </c>
-      <c r="H1451" s="11">
-        <v>32</v>
-      </c>
-      <c r="I1451" s="11">
-        <v>29</v>
-      </c>
-      <c r="J1451" s="11">
         <v>3</v>
       </c>
     </row>
@@ -58772,10 +58510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T419"/>
+  <dimension ref="A1:T415"/>
   <sheetViews>
-    <sheetView topLeftCell="A393" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G430" sqref="G430"/>
+    <sheetView topLeftCell="A381" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -80798,16 +80536,16 @@
         <v>185.67672990727019</v>
       </c>
       <c r="C374" s="13">
-        <v>132.21875141139438</v>
+        <v>131.51883742502181</v>
       </c>
       <c r="D374" s="13">
-        <v>144.43661427206172</v>
+        <v>144.39648821340771</v>
       </c>
       <c r="E374" s="13">
-        <v>133.34826390553542</v>
+        <v>133.15777789679007</v>
       </c>
       <c r="F374" s="13">
-        <v>95.570081784050103</v>
+        <v>95.117607020010979</v>
       </c>
       <c r="G374" s="13">
         <v>109.29997199018449</v>
@@ -80825,7 +80563,7 @@
         <v>67.145864419122717</v>
       </c>
       <c r="L374" s="13">
-        <v>171.89843748483642</v>
+        <v>169.55404496369044</v>
       </c>
       <c r="M374" s="13">
         <v>78.924285234175784</v>
@@ -80837,7 +80575,7 @@
         <v>77.053315845956561</v>
       </c>
       <c r="P374" s="13">
-        <v>181.97241717849005</v>
+        <v>180.82861002528318</v>
       </c>
       <c r="Q374" s="13">
         <v>86.980367479555781</v>
@@ -80860,7 +80598,7 @@
         <v>123.39173778652844</v>
       </c>
       <c r="D375" s="13">
-        <v>146.06953130322438</v>
+        <v>144.96414025552431</v>
       </c>
       <c r="E375" s="13">
         <v>164.92703406016292</v>
@@ -80919,31 +80657,31 @@
         <v>122.10050883609365</v>
       </c>
       <c r="D376" s="13">
-        <v>141.67612214464677</v>
+        <v>142.41210199994364</v>
       </c>
       <c r="E376" s="13">
         <v>113.73027113372345</v>
       </c>
       <c r="F376" s="13">
-        <v>64.51118600872887</v>
+        <v>62.468517482257887</v>
       </c>
       <c r="G376" s="13">
-        <v>154.11121913645235</v>
+        <v>152.88811422267099</v>
       </c>
       <c r="H376" s="13">
-        <v>80.62909954944837</v>
+        <v>80.415229258866276</v>
       </c>
       <c r="I376" s="13">
         <v>53.701063045980511</v>
       </c>
       <c r="J376" s="13">
-        <v>90.956664389099075</v>
+        <v>90.223142902090217</v>
       </c>
       <c r="K376" s="13">
         <v>75.491396863604734</v>
       </c>
       <c r="L376" s="13">
-        <v>131.4043848468601</v>
+        <v>129.28495928481394</v>
       </c>
       <c r="M376" s="13">
         <v>55.928790660389019</v>
@@ -80978,13 +80716,13 @@
         <v>122.35600997219429</v>
       </c>
       <c r="D377" s="13">
-        <v>133.12435621733863</v>
+        <v>133.47103422832129</v>
       </c>
       <c r="E377" s="13">
         <v>129.66511043662911</v>
       </c>
       <c r="F377" s="13">
-        <v>63.184964857301253</v>
+        <v>62.865573218709791</v>
       </c>
       <c r="G377" s="13">
         <v>179.57095840801946</v>
@@ -81034,7 +80772,7 @@
         <v>131.24000182262995</v>
       </c>
       <c r="C378" s="13">
-        <v>102.43017431652829</v>
+        <v>102.52971773180188</v>
       </c>
       <c r="D378" s="13">
         <v>179.94471457387797</v>
@@ -81043,7 +80781,7 @@
         <v>124.67642077592866</v>
       </c>
       <c r="F378" s="13">
-        <v>90.560739672792806</v>
+        <v>89.987570434357394</v>
       </c>
       <c r="G378" s="13">
         <v>166.26142338657473</v>
@@ -81102,7 +80840,7 @@
         <v>80.032274469699558</v>
       </c>
       <c r="F379" s="13">
-        <v>78.986680950161968</v>
+        <v>78.020183256342008</v>
       </c>
       <c r="G379" s="13">
         <v>113.02793404629952</v>
@@ -81158,10 +80896,10 @@
         <v>112.62305909615537</v>
       </c>
       <c r="E380" s="13">
-        <v>114.98813350747569</v>
+        <v>114.78716614890125</v>
       </c>
       <c r="F380" s="13">
-        <v>78.785609750845893</v>
+        <v>77.616462708642317</v>
       </c>
       <c r="G380" s="13">
         <v>133.30204347445863</v>
@@ -81191,7 +80929,7 @@
         <v>73.585763201355576</v>
       </c>
       <c r="P380" s="13">
-        <v>233.30867248343105</v>
+        <v>232.33719214655068</v>
       </c>
       <c r="Q380" s="13">
         <v>89.499669514865559</v>
@@ -81214,13 +80952,13 @@
         <v>110.24355229469607</v>
       </c>
       <c r="D381" s="13">
-        <v>95.687014432771917</v>
+        <v>94.812404864092912</v>
       </c>
       <c r="E381" s="13">
         <v>108.10209726502522</v>
       </c>
       <c r="F381" s="13">
-        <v>65.360989719038585</v>
+        <v>64.400151265168233</v>
       </c>
       <c r="G381" s="13">
         <v>87.053470714240376</v>
@@ -81273,13 +81011,13 @@
         <v>135.02074667590301</v>
       </c>
       <c r="D382" s="13">
-        <v>143.49416946976169</v>
+        <v>143.7733410056951</v>
       </c>
       <c r="E382" s="13">
         <v>139.44795346917113</v>
       </c>
       <c r="F382" s="13">
-        <v>104.72356666122874</v>
+        <v>103.43928967271874</v>
       </c>
       <c r="G382" s="13">
         <v>114.19278310063305</v>
@@ -81326,31 +81064,31 @@
         <v>42644</v>
       </c>
       <c r="B383" s="13">
-        <v>154.64240433444394</v>
+        <v>154.86684904320219</v>
       </c>
       <c r="C383" s="13">
         <v>123.94315368288176</v>
       </c>
       <c r="D383" s="13">
-        <v>87.953928467162896</v>
+        <v>86.657985203770068</v>
       </c>
       <c r="E383" s="13">
-        <v>145.42672123943564</v>
+        <v>145.26565848638492</v>
       </c>
       <c r="F383" s="13">
-        <v>83.70955998309833</v>
+        <v>82.735013825274123</v>
       </c>
       <c r="G383" s="13">
         <v>71.313644135548131</v>
       </c>
       <c r="H383" s="13">
-        <v>91.851780477421357</v>
+        <v>91.622683041384818</v>
       </c>
       <c r="I383" s="13">
-        <v>43.343625309648843</v>
+        <v>43.549045334813052</v>
       </c>
       <c r="J383" s="13">
-        <v>118.27599427373963</v>
+        <v>118.55693487771526</v>
       </c>
       <c r="K383" s="13">
         <v>110.52769259305396</v>
@@ -81368,7 +81106,7 @@
         <v>209.65693971055552</v>
       </c>
       <c r="P383" s="13">
-        <v>232.48701080091294</v>
+        <v>233.04857362893446</v>
       </c>
       <c r="Q383" s="13">
         <v>68.617704389311413</v>
@@ -81377,7 +81115,7 @@
         <v>68.826779513166684</v>
       </c>
       <c r="S383" s="13">
-        <v>163.00932250083889</v>
+        <v>162.25528442366931</v>
       </c>
     </row>
     <row r="384" spans="1:19" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -81391,13 +81129,13 @@
         <v>177.43809724123011</v>
       </c>
       <c r="D384" s="13">
-        <v>195.46515445769089</v>
+        <v>194.54446817433583</v>
       </c>
       <c r="E384" s="13">
         <v>154.42159940149119</v>
       </c>
       <c r="F384" s="13">
-        <v>84.154730537338367</v>
+        <v>83.291605095929739</v>
       </c>
       <c r="G384" s="13">
         <v>86.6674242809178</v>
@@ -81450,7 +81188,7 @@
         <v>129.72147816079968</v>
       </c>
       <c r="D385" s="13">
-        <v>133.57806793660382</v>
+        <v>134.57244561355125</v>
       </c>
       <c r="E385" s="13">
         <v>135.06484566053967</v>
@@ -81506,13 +81244,13 @@
         <v>165.07020180099553</v>
       </c>
       <c r="C386" s="13">
-        <v>172.07296191959435</v>
+        <v>171.85787071719486</v>
       </c>
       <c r="D386" s="13">
         <v>118.64091931406335</v>
       </c>
       <c r="E386" s="13">
-        <v>135.9521896412281</v>
+        <v>135.68558463793175</v>
       </c>
       <c r="F386" s="13">
         <v>94.486080517835219</v>
@@ -81521,7 +81259,7 @@
         <v>112.05961675859125</v>
       </c>
       <c r="H386" s="13">
-        <v>124.79207451544832</v>
+        <v>124.70700834331781</v>
       </c>
       <c r="I386" s="13">
         <v>53.966253480775471</v>
@@ -81542,13 +81280,13 @@
         <v>76.537386455136286</v>
       </c>
       <c r="O386" s="13">
-        <v>59.820594210892196</v>
+        <v>59.439571317829184</v>
       </c>
       <c r="P386" s="13">
         <v>244.58349882787923</v>
       </c>
       <c r="Q386" s="13">
-        <v>85.277568116202801</v>
+        <v>85.222054674592712</v>
       </c>
       <c r="R386" s="13">
         <v>98.554778176130696</v>
@@ -81574,13 +81312,13 @@
         <v>140.3126924458511</v>
       </c>
       <c r="F387" s="13">
-        <v>85.142069603156315</v>
+        <v>83.64771420496605</v>
       </c>
       <c r="G387" s="13">
         <v>102.88991918705348</v>
       </c>
       <c r="H387" s="13">
-        <v>127.28900579872895</v>
+        <v>127.2308298362981</v>
       </c>
       <c r="I387" s="13">
         <v>55.048401545342017</v>
@@ -81627,7 +81365,7 @@
         <v>126.15926072621451</v>
       </c>
       <c r="D388" s="13">
-        <v>181.46035004680004</v>
+        <v>181.18031864240686</v>
       </c>
       <c r="E388" s="13">
         <v>93.240575448117951</v>
@@ -81639,7 +81377,7 @@
         <v>102.50725503540529</v>
       </c>
       <c r="H388" s="13">
-        <v>117.24226689330702</v>
+        <v>117.14337000010305</v>
       </c>
       <c r="I388" s="13">
         <v>36.580931359176908</v>
@@ -81663,7 +81401,7 @@
         <v>77.327412177695678</v>
       </c>
       <c r="P388" s="13">
-        <v>191.43275690948187</v>
+        <v>190.97147315789275</v>
       </c>
       <c r="Q388" s="13">
         <v>48.692470484319941</v>
@@ -81683,16 +81421,16 @@
         <v>161.97254888240687</v>
       </c>
       <c r="C389" s="13">
-        <v>136.83612257124281</v>
+        <v>136.70288389298452</v>
       </c>
       <c r="D389" s="13">
-        <v>242.45727667996078</v>
+        <v>241.35601060196325</v>
       </c>
       <c r="E389" s="13">
-        <v>148.06986485449463</v>
+        <v>147.85953834191724</v>
       </c>
       <c r="F389" s="13">
-        <v>80.665728442092146</v>
+        <v>80.585543821374372</v>
       </c>
       <c r="G389" s="13">
         <v>140.71934130246328</v>
@@ -81716,7 +81454,7 @@
         <v>100.71888808967672</v>
       </c>
       <c r="N389" s="13">
-        <v>220.45462493160096</v>
+        <v>218.64761980921082</v>
       </c>
       <c r="O389" s="13">
         <v>76.261609135950309</v>
@@ -81742,16 +81480,16 @@
         <v>142.61375450881249</v>
       </c>
       <c r="C390" s="13">
-        <v>112.26120402854241</v>
+        <v>112.14894282451387</v>
       </c>
       <c r="D390" s="13">
-        <v>190.52250445538692</v>
+        <v>189.67803027540114</v>
       </c>
       <c r="E390" s="13">
         <v>106.06631982032386</v>
       </c>
       <c r="F390" s="13">
-        <v>70.945858163200555</v>
+        <v>70.416994743818236</v>
       </c>
       <c r="G390" s="13">
         <v>98.071844961757947</v>
@@ -81784,7 +81522,7 @@
         <v>201.00439475495597</v>
       </c>
       <c r="Q390" s="13">
-        <v>95.222027979053863</v>
+        <v>95.119638701657024</v>
       </c>
       <c r="R390" s="13">
         <v>111.37712993883835</v>
@@ -81804,13 +81542,13 @@
         <v>112.79347697867775</v>
       </c>
       <c r="D391" s="13">
-        <v>94.730646538541805</v>
+        <v>94.099529639550866</v>
       </c>
       <c r="E391" s="13">
-        <v>99.953997554543463</v>
+        <v>99.744450389858883</v>
       </c>
       <c r="F391" s="13">
-        <v>83.182628267966663</v>
+        <v>81.042744504917891</v>
       </c>
       <c r="G391" s="13">
         <v>108.88273527432119</v>
@@ -81869,7 +81607,7 @@
         <v>105.89197420583633</v>
       </c>
       <c r="F392" s="13">
-        <v>71.644299887795441</v>
+        <v>71.702311466651963</v>
       </c>
       <c r="G392" s="13">
         <v>98.169098730896948</v>
@@ -81902,7 +81640,7 @@
         <v>152.40992569331826</v>
       </c>
       <c r="Q392" s="13">
-        <v>89.617207532877003</v>
+        <v>89.498979026896947</v>
       </c>
       <c r="R392" s="13">
         <v>89.806065247126583</v>
@@ -81919,10 +81657,10 @@
         <v>128.51417748281966</v>
       </c>
       <c r="C393" s="13">
-        <v>145.66275678881559</v>
+        <v>145.52985281364329</v>
       </c>
       <c r="D393" s="13">
-        <v>274.42433331774703</v>
+        <v>274.35880477660425</v>
       </c>
       <c r="E393" s="13">
         <v>135.85715353037605</v>
@@ -81949,10 +81687,10 @@
         <v>164.96862110618181</v>
       </c>
       <c r="M393" s="13">
-        <v>163.27149769097679</v>
+        <v>155.58813309375435</v>
       </c>
       <c r="N393" s="13">
-        <v>161.27520717332285</v>
+        <v>157.75006603292238</v>
       </c>
       <c r="O393" s="13">
         <v>99.84869552237808</v>
@@ -81981,19 +81719,19 @@
         <v>125.31737325619284</v>
       </c>
       <c r="D394" s="13">
-        <v>263.35547575062515</v>
+        <v>263.78720603874098</v>
       </c>
       <c r="E394" s="13">
         <v>122.55826043367695</v>
       </c>
       <c r="F394" s="13">
-        <v>102.49514994677085</v>
+        <v>101.04761388712933</v>
       </c>
       <c r="G394" s="13">
         <v>115.85043021379859</v>
       </c>
       <c r="H394" s="13">
-        <v>140.5722183770537</v>
+        <v>140.5149588176333</v>
       </c>
       <c r="I394" s="13">
         <v>77.662913047097035</v>
@@ -82037,10 +81775,10 @@
         <v>144.4581686311887</v>
       </c>
       <c r="C395" s="13">
-        <v>91.185223172435443</v>
+        <v>91.777335011217488</v>
       </c>
       <c r="D395" s="13">
-        <v>91.68672118725469</v>
+        <v>92.551690255058986</v>
       </c>
       <c r="E395" s="13">
         <v>102.12306706112454</v>
@@ -82058,7 +81796,7 @@
         <v>54.516197579161762</v>
       </c>
       <c r="J395" s="13">
-        <v>76.98340084357163</v>
+        <v>76.871343491543144</v>
       </c>
       <c r="K395" s="13">
         <v>57.850961616987753</v>
@@ -82105,7 +81843,7 @@
         <v>88.78070180637458</v>
       </c>
       <c r="F396" s="13">
-        <v>82.630360019477251</v>
+        <v>81.837137480770167</v>
       </c>
       <c r="G396" s="13">
         <v>43.0229460200514</v>
@@ -82164,7 +81902,7 @@
         <v>96.44719263313938</v>
       </c>
       <c r="F397" s="13">
-        <v>56.421688080650171</v>
+        <v>56.383332072437632</v>
       </c>
       <c r="G397" s="13">
         <v>91.669467846927105</v>
@@ -82223,13 +81961,13 @@
         <v>115.69394824329768</v>
       </c>
       <c r="F398" s="13">
-        <v>108.27660767435476</v>
+        <v>107.60297169560529</v>
       </c>
       <c r="G398" s="13">
         <v>89.454190069101571</v>
       </c>
       <c r="H398" s="13">
-        <v>115.89513465651669</v>
+        <v>115.8664406395183</v>
       </c>
       <c r="I398" s="13">
         <v>43.216219003624005</v>
@@ -82238,7 +81976,7 @@
         <v>78.378160451137674</v>
       </c>
       <c r="K398" s="13">
-        <v>74.884637663205339</v>
+        <v>74.811436648871805</v>
       </c>
       <c r="L398" s="13">
         <v>42.188129187783701</v>
@@ -82250,7 +81988,7 @@
         <v>100.50483925294034</v>
       </c>
       <c r="O398" s="13">
-        <v>47.640905659845671</v>
+        <v>47.533847444879733</v>
       </c>
       <c r="P398" s="13">
         <v>179.87455271872071</v>
@@ -82273,7 +82011,7 @@
         <v>111.48913401175888</v>
       </c>
       <c r="C399" s="13">
-        <v>100.62812435378983</v>
+        <v>100.53923025100377</v>
       </c>
       <c r="D399" s="13">
         <v>71.661891283780662</v>
@@ -82282,7 +82020,7 @@
         <v>88.492157666400544</v>
       </c>
       <c r="F399" s="13">
-        <v>72.816518339193976</v>
+        <v>71.882973232281216</v>
       </c>
       <c r="G399" s="13">
         <v>77.774165989184638</v>
@@ -82332,25 +82070,25 @@
         <v>114.58704526915535</v>
       </c>
       <c r="C400" s="13">
-        <v>191.0345427476928</v>
+        <v>190.81124111970016</v>
       </c>
       <c r="D400" s="13">
         <v>175.64325693716754</v>
       </c>
       <c r="E400" s="13">
-        <v>116.681934059508</v>
+        <v>116.36376262131031</v>
       </c>
       <c r="F400" s="13">
-        <v>80.642622275411696</v>
+        <v>79.744206250302881</v>
       </c>
       <c r="G400" s="13">
-        <v>168.40207679437293</v>
+        <v>167.59632523076351</v>
       </c>
       <c r="H400" s="13">
-        <v>178.63939415102448</v>
+        <v>178.49126861690257</v>
       </c>
       <c r="I400" s="13">
-        <v>35.192832499599973</v>
+        <v>35.098734016980728</v>
       </c>
       <c r="J400" s="13">
         <v>63.695459234549887</v>
@@ -82365,7 +82103,7 @@
         <v>25.331635880774655</v>
       </c>
       <c r="N400" s="13">
-        <v>84.007299363363501</v>
+        <v>83.763092097772358</v>
       </c>
       <c r="O400" s="13">
         <v>65.638009794703734</v>
@@ -82374,7 +82112,7 @@
         <v>208.00555741931336</v>
       </c>
       <c r="Q400" s="13">
-        <v>71.314384930996653</v>
+        <v>71.012205333831417</v>
       </c>
       <c r="R400" s="13">
         <v>58.311577087543988</v>
@@ -82394,7 +82132,7 @@
         <v>153.81682092022473</v>
       </c>
       <c r="D401" s="13">
-        <v>174.45945559241517</v>
+        <v>174.64604324545519</v>
       </c>
       <c r="E401" s="13">
         <v>135.1101676961099</v>
@@ -82406,7 +82144,7 @@
         <v>146.44252279034887</v>
       </c>
       <c r="H401" s="13">
-        <v>174.08596531865646</v>
+        <v>174.12910930014806</v>
       </c>
       <c r="I401" s="13">
         <v>32.789049883563564</v>
@@ -82415,7 +82153,7 @@
         <v>92.988558133861602</v>
       </c>
       <c r="K401" s="13">
-        <v>56.469942535767323</v>
+        <v>56.420580697886415</v>
       </c>
       <c r="L401" s="13">
         <v>81.15036375044636</v>
@@ -82453,7 +82191,7 @@
         <v>118.91766890784675</v>
       </c>
       <c r="D402" s="13">
-        <v>134.55535704902888</v>
+        <v>134.14485141676187</v>
       </c>
       <c r="E402" s="13">
         <v>102.92268602118759</v>
@@ -82506,37 +82244,37 @@
         <v>43252</v>
       </c>
       <c r="B403" s="13">
-        <v>105.44866892193913</v>
+        <v>105.03351668208897</v>
       </c>
       <c r="C403" s="13">
         <v>164.03210560098012</v>
       </c>
       <c r="D403" s="13">
-        <v>130.71943535772226</v>
+        <v>130.39317711623596</v>
       </c>
       <c r="E403" s="13">
-        <v>72.0205585253848</v>
+        <v>71.914333512810487</v>
       </c>
       <c r="F403" s="13">
-        <v>76.424496206592679</v>
+        <v>75.982556416425822</v>
       </c>
       <c r="G403" s="13">
-        <v>101.70485990948623</v>
+        <v>101.19633560993881</v>
       </c>
       <c r="H403" s="13">
-        <v>170.28362116002339</v>
+        <v>170.24549227037718</v>
       </c>
       <c r="I403" s="13">
         <v>49.8976739153685</v>
       </c>
       <c r="J403" s="13">
-        <v>53.27947233524025</v>
+        <v>53.019572470190305</v>
       </c>
       <c r="K403" s="13">
-        <v>61.365305747813522</v>
+        <v>60.568353725114655</v>
       </c>
       <c r="L403" s="13">
-        <v>79.182724777374617</v>
+        <v>78.596186075319991</v>
       </c>
       <c r="M403" s="13">
         <v>38.697867716482939</v>
@@ -82565,7 +82303,7 @@
         <v>43282</v>
       </c>
       <c r="B404" s="13">
-        <v>106.82259986405194</v>
+        <v>105.15349674117611</v>
       </c>
       <c r="C404" s="13">
         <v>155.70414807909395</v>
@@ -82577,7 +82315,7 @@
         <v>94.647391677517874</v>
       </c>
       <c r="F404" s="13">
-        <v>103.81021588869703</v>
+        <v>102.37784781812653</v>
       </c>
       <c r="G404" s="13">
         <v>96.358985962798798</v>
@@ -82630,10 +82368,10 @@
         <v>133.22053182109426</v>
       </c>
       <c r="D405" s="13">
-        <v>110.19120267686991</v>
+        <v>110.33486786940819</v>
       </c>
       <c r="E405" s="13">
-        <v>104.37775424461491</v>
+        <v>104.30255413348767</v>
       </c>
       <c r="F405" s="13">
         <v>79.716389219979348</v>
@@ -82666,7 +82404,7 @@
         <v>50.950644034794394</v>
       </c>
       <c r="P405" s="13">
-        <v>158.97956421452679</v>
+        <v>158.63913688216164</v>
       </c>
       <c r="Q405" s="13">
         <v>75.838630856726553</v>
@@ -82686,22 +82424,22 @@
         <v>109.87255042927792</v>
       </c>
       <c r="C406" s="13">
-        <v>146.44157580599492</v>
+        <v>146.34673022580967</v>
       </c>
       <c r="D406" s="13">
-        <v>153.77240209390018</v>
+        <v>154.16821265270045</v>
       </c>
       <c r="E406" s="13">
         <v>114.89320286299495</v>
       </c>
       <c r="F406" s="13">
-        <v>88.279746803186924</v>
+        <v>88.329763656899772</v>
       </c>
       <c r="G406" s="13">
         <v>134.83748822276721</v>
       </c>
       <c r="H406" s="13">
-        <v>157.83843922823192</v>
+        <v>157.87475732285415</v>
       </c>
       <c r="I406" s="13">
         <v>39.420199766819195</v>
@@ -82745,7 +82483,7 @@
         <v>113.84087685060203</v>
       </c>
       <c r="C407" s="13">
-        <v>155.97434225026871</v>
+        <v>155.81534699822967</v>
       </c>
       <c r="D407" s="13">
         <v>125.6273069223824</v>
@@ -82760,7 +82498,7 @@
         <v>202.95878742804851</v>
       </c>
       <c r="H407" s="13">
-        <v>156.5893182679367</v>
+        <v>156.62297891244827</v>
       </c>
       <c r="I407" s="13">
         <v>72.680158146349001</v>
@@ -82769,7 +82507,7 @@
         <v>79.97781337439126</v>
       </c>
       <c r="K407" s="13">
-        <v>45.700435377446681</v>
+        <v>45.6560660227113</v>
       </c>
       <c r="L407" s="13">
         <v>161.61134334281854</v>
@@ -82813,13 +82551,13 @@
         <v>115.42956958755215</v>
       </c>
       <c r="F408" s="13">
-        <v>88.865128870352308</v>
+        <v>88.477071539040708</v>
       </c>
       <c r="G408" s="13">
         <v>134.59713619384962</v>
       </c>
       <c r="H408" s="13">
-        <v>157.5767870822003</v>
+        <v>157.6132885385548</v>
       </c>
       <c r="I408" s="13">
         <v>21.747724523443988</v>
@@ -82840,7 +82578,7 @@
         <v>121.36866306704053</v>
       </c>
       <c r="O408" s="13">
-        <v>56.288330552725228</v>
+        <v>53.325786839423905</v>
       </c>
       <c r="P408" s="13">
         <v>259.8535901775096</v>
@@ -82869,28 +82607,28 @@
         <v>94.333172171244357</v>
       </c>
       <c r="E409" s="13">
-        <v>125.63831627353051</v>
+        <v>125.69128352322423</v>
       </c>
       <c r="F409" s="13">
-        <v>85.494663178234759</v>
+        <v>85.0998623944934</v>
       </c>
       <c r="G409" s="13">
-        <v>113.84737238345026</v>
+        <v>114.82410425485755</v>
       </c>
       <c r="H409" s="13">
-        <v>181.30648964878787</v>
+        <v>181.4129350935286</v>
       </c>
       <c r="I409" s="13">
         <v>37.738638797745082</v>
       </c>
       <c r="J409" s="13">
-        <v>99.5958369223586</v>
+        <v>99.815402663597055</v>
       </c>
       <c r="K409" s="13">
         <v>58.487042060509523</v>
       </c>
       <c r="L409" s="13">
-        <v>196.01941079027682</v>
+        <v>197.32620686221202</v>
       </c>
       <c r="M409" s="13">
         <v>25.179722022419181</v>
@@ -82905,7 +82643,7 @@
         <v>248.50901424660972</v>
       </c>
       <c r="Q409" s="13">
-        <v>69.732978372498565</v>
+        <v>70.015497044784539</v>
       </c>
       <c r="R409" s="13">
         <v>41.258191335526412</v>
@@ -82919,31 +82657,31 @@
         <v>43466</v>
       </c>
       <c r="B410" s="13">
-        <v>131.86096569489928</v>
+        <v>131.74610422652395</v>
       </c>
       <c r="C410" s="13">
-        <v>156.65760691483018</v>
+        <v>158.12757665061608</v>
       </c>
       <c r="D410" s="13">
-        <v>90.42801619985741</v>
+        <v>90.95376048008913</v>
       </c>
       <c r="E410" s="13">
         <v>132.99100664876053</v>
       </c>
       <c r="F410" s="13">
-        <v>82.124949289452729</v>
+        <v>81.851393608851296</v>
       </c>
       <c r="G410" s="13">
-        <v>210.80120995184157</v>
+        <v>211.15490325712986</v>
       </c>
       <c r="H410" s="13">
-        <v>167.43482981157743</v>
+        <v>167.30432721624496</v>
       </c>
       <c r="I410" s="13">
         <v>42.305932622677503</v>
       </c>
       <c r="J410" s="13">
-        <v>78.038481716423675</v>
+        <v>78.46726458299743</v>
       </c>
       <c r="K410" s="13">
         <v>127.00007900317026</v>
@@ -82952,22 +82690,22 @@
         <v>179.22202632408423</v>
       </c>
       <c r="M410" s="13">
-        <v>98.183262799974869</v>
+        <v>98.371353341737262</v>
       </c>
       <c r="N410" s="13">
-        <v>225.45948154331202</v>
+        <v>225.769024262806</v>
       </c>
       <c r="O410" s="13">
-        <v>50.211616873079592</v>
+        <v>50.112969295725804</v>
       </c>
       <c r="P410" s="13">
-        <v>222.13423679119126</v>
+        <v>221.02330923933869</v>
       </c>
       <c r="Q410" s="13">
-        <v>84.302348150452062</v>
+        <v>84.733011487108271</v>
       </c>
       <c r="R410" s="13">
-        <v>65.171762627255049</v>
+        <v>65.012418464352223</v>
       </c>
       <c r="S410" s="13">
         <v>58.744110465498252</v>
@@ -82978,58 +82716,58 @@
         <v>43497</v>
       </c>
       <c r="B411" s="13">
-        <v>118.82660675008569</v>
+        <v>118.81191996192906</v>
       </c>
       <c r="C411" s="13">
-        <v>160.68334812596009</v>
+        <v>161.90870315483434</v>
       </c>
       <c r="D411" s="13">
-        <v>112.57091879101826</v>
+        <v>112.69826145933388</v>
       </c>
       <c r="E411" s="13">
-        <v>135.24795200137189</v>
+        <v>135.51939796625172</v>
       </c>
       <c r="F411" s="13">
-        <v>137.75354936646522</v>
+        <v>137.79940412748888</v>
       </c>
       <c r="G411" s="13">
-        <v>184.70458491552037</v>
+        <v>184.88764198679442</v>
       </c>
       <c r="H411" s="13">
-        <v>163.23542803691066</v>
+        <v>163.69734402697631</v>
       </c>
       <c r="I411" s="13">
-        <v>78.825906813135887</v>
+        <v>79.409802419159121</v>
       </c>
       <c r="J411" s="13">
-        <v>75.590594553260829</v>
+        <v>74.544228861324967</v>
       </c>
       <c r="K411" s="13">
-        <v>44.801310826318449</v>
+        <v>44.851991042185333</v>
       </c>
       <c r="L411" s="13">
         <v>76.17441854307971</v>
       </c>
       <c r="M411" s="13">
-        <v>133.67356418040583</v>
+        <v>134.41619509251919</v>
       </c>
       <c r="N411" s="13">
         <v>193.71008555744396</v>
       </c>
       <c r="O411" s="13">
-        <v>73.358225281747167</v>
+        <v>74.370062871840219</v>
       </c>
       <c r="P411" s="13">
-        <v>193.55978754180944</v>
+        <v>192.84554478335258</v>
       </c>
       <c r="Q411" s="13">
-        <v>68.641750543347896</v>
+        <v>68.147600174006058</v>
       </c>
       <c r="R411" s="13">
-        <v>63.362186126622611</v>
+        <v>61.088318853617508</v>
       </c>
       <c r="S411" s="13">
-        <v>73.322679343216421</v>
+        <v>73.772511731825105</v>
       </c>
     </row>
     <row r="412" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -83037,58 +82775,58 @@
         <v>43525</v>
       </c>
       <c r="B412" s="13">
-        <v>83.612936045521153</v>
+        <v>83.693255868811761</v>
       </c>
       <c r="C412" s="13">
-        <v>100.82941424426181</v>
+        <v>99.066356353168899</v>
       </c>
       <c r="D412" s="13">
-        <v>90.441773695095478</v>
+        <v>90.586480533007631</v>
       </c>
       <c r="E412" s="13">
-        <v>101.60907982372964</v>
+        <v>101.7507281692088</v>
       </c>
       <c r="F412" s="13">
-        <v>106.77161555290857</v>
+        <v>106.59303057295895</v>
       </c>
       <c r="G412" s="13">
-        <v>105.83202977167754</v>
+        <v>106.06411755626455</v>
       </c>
       <c r="H412" s="13">
-        <v>119.51168094398122</v>
+        <v>119.71953391804897</v>
       </c>
       <c r="I412" s="13">
-        <v>29.451437710402413</v>
+        <v>28.969768876912088</v>
       </c>
       <c r="J412" s="13">
-        <v>56.723673798910355</v>
+        <v>56.363711439347284</v>
       </c>
       <c r="K412" s="13">
-        <v>83.47990446821899</v>
+        <v>83.709560326453442</v>
       </c>
       <c r="L412" s="13">
-        <v>70.212764773425647</v>
+        <v>70.341595534477818</v>
       </c>
       <c r="M412" s="13">
-        <v>52.992617589666523</v>
+        <v>53.108321994884122</v>
       </c>
       <c r="N412" s="13">
-        <v>130.21675210939327</v>
+        <v>130.64439333142741</v>
       </c>
       <c r="O412" s="13">
-        <v>72.092801950294117</v>
+        <v>72.247840234058188</v>
       </c>
       <c r="P412" s="13">
-        <v>200.92529030995206</v>
+        <v>201.48033254837733</v>
       </c>
       <c r="Q412" s="13">
-        <v>64.499113645321643</v>
+        <v>64.879265592150645</v>
       </c>
       <c r="R412" s="13">
-        <v>40.618090636178401</v>
+        <v>40.511200923977931</v>
       </c>
       <c r="S412" s="13">
-        <v>63.694121804215364</v>
+        <v>61.666253396346114</v>
       </c>
     </row>
     <row r="413" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -83096,58 +82834,58 @@
         <v>43556</v>
       </c>
       <c r="B413" s="13">
-        <v>113.77495279119189</v>
+        <v>114.3172547587381</v>
       </c>
       <c r="C413" s="13">
-        <v>112.53459508858145</v>
+        <v>113.71981828042136</v>
       </c>
       <c r="D413" s="13">
-        <v>93.032971343790877</v>
+        <v>92.254440823089084</v>
       </c>
       <c r="E413" s="13">
-        <v>113.76450367147437</v>
+        <v>113.59939015373546</v>
       </c>
       <c r="F413" s="13">
-        <v>102.17308367860825</v>
+        <v>102.39001166943333</v>
       </c>
       <c r="G413" s="13">
-        <v>130.45164934811314</v>
+        <v>129.9049524409109</v>
       </c>
       <c r="H413" s="13">
-        <v>126.21255649820282</v>
+        <v>125.92218317843329</v>
       </c>
       <c r="I413" s="13">
         <v>45.715664505699273</v>
       </c>
       <c r="J413" s="13">
-        <v>89.942381229476482</v>
+        <v>89.778635641529547</v>
       </c>
       <c r="K413" s="13">
-        <v>53.922426331146234</v>
+        <v>58.441277551854974</v>
       </c>
       <c r="L413" s="13">
-        <v>80.350611573501084</v>
+        <v>78.640601032713889</v>
       </c>
       <c r="M413" s="13">
-        <v>35.490081736334552</v>
+        <v>35.789155458831765</v>
       </c>
       <c r="N413" s="13">
-        <v>145.59068442669681</v>
+        <v>145.9156636330064</v>
       </c>
       <c r="O413" s="13">
-        <v>54.598380674698831</v>
+        <v>53.782627692409612</v>
       </c>
       <c r="P413" s="13">
-        <v>168.03115736744101</v>
+        <v>166.39627964767843</v>
       </c>
       <c r="Q413" s="13">
-        <v>71.3378350176136</v>
+        <v>70.7193005559851</v>
       </c>
       <c r="R413" s="13">
-        <v>87.467365631315985</v>
+        <v>87.716560405194386</v>
       </c>
       <c r="S413" s="13">
-        <v>84.047129205010748</v>
+        <v>84.246293018292761</v>
       </c>
     </row>
     <row r="414" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -83155,58 +82893,58 @@
         <v>43586</v>
       </c>
       <c r="B414" s="13">
-        <v>114.74799832566434</v>
+        <v>136.94158883411774</v>
       </c>
       <c r="C414" s="13">
-        <v>136.63370227158123</v>
+        <v>149.48291297487918</v>
       </c>
       <c r="D414" s="13">
-        <v>110.59119978256493</v>
+        <v>134.57244561355125</v>
       </c>
       <c r="E414" s="13">
-        <v>135.89990589962011</v>
+        <v>132.78523613809276</v>
       </c>
       <c r="F414" s="13">
-        <v>99.701482409032437</v>
+        <v>105.58997698774341</v>
       </c>
       <c r="G414" s="13">
-        <v>171.48259750860677</v>
+        <v>219.52687876432776</v>
       </c>
       <c r="H414" s="13">
-        <v>188.83928906326628</v>
+        <v>182.16903715481374</v>
       </c>
       <c r="I414" s="13">
-        <v>59.244671603130584</v>
+        <v>68.065544930707816</v>
       </c>
       <c r="J414" s="13">
-        <v>108.49697495914437</v>
+        <v>127.40376288515837</v>
       </c>
       <c r="K414" s="13">
-        <v>106.6147473116132</v>
+        <v>90.483847175301932</v>
       </c>
       <c r="L414" s="13">
-        <v>101.77744132643471</v>
+        <v>73.962358323603965</v>
       </c>
       <c r="M414" s="13">
-        <v>56.422202444112571</v>
+        <v>89.990685724234964</v>
       </c>
       <c r="N414" s="13">
-        <v>205.76234128001136</v>
+        <v>235.13375296286932</v>
       </c>
       <c r="O414" s="13">
-        <v>53.764682204357428</v>
+        <v>88.57503576717869</v>
       </c>
       <c r="P414" s="13">
-        <v>190.33885544142768</v>
+        <v>159.65048452682657</v>
       </c>
       <c r="Q414" s="13">
-        <v>86.876634185006523</v>
+        <v>88.650177908783334</v>
       </c>
       <c r="R414" s="13">
-        <v>84.583826105008868</v>
+        <v>98.400786335230478</v>
       </c>
       <c r="S414" s="13">
-        <v>59.996034131156421</v>
+        <v>76.159195182238477</v>
       </c>
     </row>
     <row r="415" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -83214,296 +82952,60 @@
         <v>43617</v>
       </c>
       <c r="B415" s="13">
-        <v>109.97461660005237</v>
+        <v>99.763463089596272</v>
       </c>
       <c r="C415" s="13">
-        <v>213.55374001546937</v>
+        <v>247.95640083718737</v>
       </c>
       <c r="D415" s="13">
-        <v>90.145767889989898</v>
+        <v>103.06138960522237</v>
       </c>
       <c r="E415" s="13">
-        <v>129.43543634671039</v>
+        <v>121.46045273986775</v>
       </c>
       <c r="F415" s="13">
-        <v>91.088828184609667</v>
+        <v>84.060030253798232</v>
       </c>
       <c r="G415" s="13">
-        <v>108.6898986990621</v>
+        <v>79.360455511281529</v>
       </c>
       <c r="H415" s="13">
-        <v>186.80049437624714</v>
+        <v>209.82090824202584</v>
       </c>
       <c r="I415" s="13">
-        <v>55.008073046041417</v>
+        <v>95.468556526187569</v>
       </c>
       <c r="J415" s="13">
-        <v>128.95632233076896</v>
+        <v>184.52598396226344</v>
       </c>
       <c r="K415" s="13">
-        <v>63.501287536952688</v>
+        <v>25.043971340465699</v>
       </c>
       <c r="L415" s="13">
-        <v>101.83193052572817</v>
+        <v>56.047031529664338</v>
       </c>
       <c r="M415" s="13">
-        <v>33.961538653695008</v>
+        <v>88.055402160272919</v>
       </c>
       <c r="N415" s="13">
-        <v>133.22248575925218</v>
+        <v>114.96846451959651</v>
       </c>
       <c r="O415" s="13">
-        <v>36.716115528783675</v>
+        <v>55.125813399404457</v>
       </c>
       <c r="P415" s="13">
-        <v>185.80238170626183</v>
+        <v>123.06391515609549</v>
       </c>
       <c r="Q415" s="13">
-        <v>78.417980515627164</v>
+        <v>63.906233548920518</v>
       </c>
       <c r="R415" s="13">
-        <v>116.31049156335853</v>
+        <v>128.89927566720249</v>
       </c>
       <c r="S415" s="13">
-        <v>81.229497380964403</v>
+        <v>209.1290332571738</v>
       </c>
       <c r="T415" s="13"/>
-    </row>
-    <row r="416" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A416" s="14">
-        <v>43647</v>
-      </c>
-      <c r="B416" s="13">
-        <v>108.56191382574852</v>
-      </c>
-      <c r="C416" s="13">
-        <v>144.92181256321996</v>
-      </c>
-      <c r="D416" s="13">
-        <v>137.07897860160892</v>
-      </c>
-      <c r="E416" s="13">
-        <v>110.80925987984156</v>
-      </c>
-      <c r="F416" s="13">
-        <v>88.390884698715936</v>
-      </c>
-      <c r="G416" s="13">
-        <v>122.86011447230439</v>
-      </c>
-      <c r="H416" s="13">
-        <v>166.17994313986927</v>
-      </c>
-      <c r="I416" s="13">
-        <v>27.844995653471372</v>
-      </c>
-      <c r="J416" s="13">
-        <v>67.619222764007858</v>
-      </c>
-      <c r="K416" s="13">
-        <v>52.052535740630681</v>
-      </c>
-      <c r="L416" s="13">
-        <v>90.682837531142297</v>
-      </c>
-      <c r="M416" s="13">
-        <v>32.033591044533281</v>
-      </c>
-      <c r="N416" s="13">
-        <v>105.32258427645576</v>
-      </c>
-      <c r="O416" s="13">
-        <v>43.026102153927695</v>
-      </c>
-      <c r="P416" s="13">
-        <v>140.68380457441791</v>
-      </c>
-      <c r="Q416" s="13">
-        <v>56.686700888582209</v>
-      </c>
-      <c r="R416" s="13">
-        <v>39.290153545617876</v>
-      </c>
-      <c r="S416" s="13">
-        <v>64.096037837234761</v>
-      </c>
-    </row>
-    <row r="417" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A417" s="14">
-        <v>43678</v>
-      </c>
-      <c r="B417" s="13">
-        <v>79.025548461486451</v>
-      </c>
-      <c r="C417" s="13">
-        <v>140.27726766549006</v>
-      </c>
-      <c r="D417" s="13">
-        <v>169.79022442084201</v>
-      </c>
-      <c r="E417" s="13">
-        <v>136.21545109723778</v>
-      </c>
-      <c r="F417" s="13">
-        <v>155.54931332308323</v>
-      </c>
-      <c r="G417" s="13">
-        <v>180.02167385357706</v>
-      </c>
-      <c r="H417" s="13">
-        <v>252.10157321404978</v>
-      </c>
-      <c r="I417" s="13">
-        <v>50.007339132764919</v>
-      </c>
-      <c r="J417" s="13">
-        <v>78.55167547541852</v>
-      </c>
-      <c r="K417" s="13">
-        <v>77.236765988904509</v>
-      </c>
-      <c r="L417" s="13">
-        <v>102.77793449407615</v>
-      </c>
-      <c r="M417" s="13">
-        <v>45.837058658772207</v>
-      </c>
-      <c r="N417" s="13">
-        <v>125.95636233061629</v>
-      </c>
-      <c r="O417" s="13">
-        <v>87.922361723915969</v>
-      </c>
-      <c r="P417" s="13">
-        <v>228.53212840356753</v>
-      </c>
-      <c r="Q417" s="13">
-        <v>71.192358265644572</v>
-      </c>
-      <c r="R417" s="13">
-        <v>74.781259165705265</v>
-      </c>
-      <c r="S417" s="13">
-        <v>90.381563575241344</v>
-      </c>
-    </row>
-    <row r="418" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A418" s="14">
-        <v>43709</v>
-      </c>
-      <c r="B418" s="13">
-        <v>102.3270712439021</v>
-      </c>
-      <c r="C418" s="13">
-        <v>150.28797369503647</v>
-      </c>
-      <c r="D418" s="13">
-        <v>138.41737263108129</v>
-      </c>
-      <c r="E418" s="13">
-        <v>97.180803585022431</v>
-      </c>
-      <c r="F418" s="13">
-        <v>111.31466645621887</v>
-      </c>
-      <c r="G418" s="13">
-        <v>113.55392611044542</v>
-      </c>
-      <c r="H418" s="13">
-        <v>182.62984757383632</v>
-      </c>
-      <c r="I418" s="13">
-        <v>51.941076167575076</v>
-      </c>
-      <c r="J418" s="13">
-        <v>123.85228184495811</v>
-      </c>
-      <c r="K418" s="13">
-        <v>85.252536812600539</v>
-      </c>
-      <c r="L418" s="13">
-        <v>86.567692263639955</v>
-      </c>
-      <c r="M418" s="13">
-        <v>84.391053772771031</v>
-      </c>
-      <c r="N418" s="13">
-        <v>140.97639133269718</v>
-      </c>
-      <c r="O418" s="13">
-        <v>47.370622826899407</v>
-      </c>
-      <c r="P418" s="13">
-        <v>137.31570277655041</v>
-      </c>
-      <c r="Q418" s="13">
-        <v>72.137563833619211</v>
-      </c>
-      <c r="R418" s="13">
-        <v>68.34659267935389</v>
-      </c>
-      <c r="S418" s="13">
-        <v>103.31224696836429</v>
-      </c>
-    </row>
-    <row r="419" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A419" s="14">
-        <v>43739</v>
-      </c>
-      <c r="B419" s="13">
-        <v>187.53428765644892</v>
-      </c>
-      <c r="C419" s="13">
-        <v>104.24883574101507</v>
-      </c>
-      <c r="D419" s="13">
-        <v>137.00314660164494</v>
-      </c>
-      <c r="E419" s="13">
-        <v>81.258525031544195</v>
-      </c>
-      <c r="F419" s="13">
-        <v>77.306793150956082</v>
-      </c>
-      <c r="G419" s="13">
-        <v>144.09425772577575</v>
-      </c>
-      <c r="H419" s="13">
-        <v>196.93756111908962</v>
-      </c>
-      <c r="I419" s="13">
-        <v>54.695527176461631</v>
-      </c>
-      <c r="J419" s="13">
-        <v>103.58554481578315</v>
-      </c>
-      <c r="K419" s="13">
-        <v>14.303104812760093</v>
-      </c>
-      <c r="L419" s="13">
-        <v>77.919043833923595</v>
-      </c>
-      <c r="M419" s="13">
-        <v>81.897681729484617</v>
-      </c>
-      <c r="N419" s="13">
-        <v>83.915554951972879</v>
-      </c>
-      <c r="O419" s="13">
-        <v>59.250874266026557</v>
-      </c>
-      <c r="P419" s="13">
-        <v>116.10812864727271</v>
-      </c>
-      <c r="Q419" s="13">
-        <v>52.501663253425555</v>
-      </c>
-      <c r="R419" s="13">
-        <v>19.437192362514661</v>
-      </c>
-      <c r="S419" s="13">
-        <v>81.691028616083514</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
